--- a/metrics/MAPE/average & upto/Infarto de Miocardio.xlsx
+++ b/metrics/MAPE/average & upto/Infarto de Miocardio.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7684811632941.392</v>
+        <v>7640292108223.012</v>
       </c>
       <c r="C3" t="n">
-        <v>7674611290103.919</v>
+        <v>7437172328893.974</v>
       </c>
       <c r="D3" t="n">
-        <v>7898976399070.647</v>
+        <v>7036519624004.723</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11699018322296.56</v>
+        <v>11612748467022.36</v>
       </c>
       <c r="C4" t="n">
-        <v>11698737333778.16</v>
+        <v>11729499005137.97</v>
       </c>
       <c r="D4" t="n">
-        <v>11711397978476.84</v>
+        <v>11568184717841.87</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>287811187794383.6</v>
+        <v>365634631611799.2</v>
       </c>
       <c r="C5" t="n">
-        <v>333421675488169.2</v>
+        <v>390035243218503.4</v>
       </c>
       <c r="D5" t="n">
-        <v>414706221730170.6</v>
+        <v>451208378024619.8</v>
       </c>
     </row>
   </sheetData>
